--- a/code表.xlsx
+++ b/code表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijieyang/Desktop/study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijieyang/hutao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA15BA-D961-744A-AC89-EC3EC70497F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7177F0-7FF0-0743-8EF3-85FFF79E6D1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{72762A7F-040A-324E-BB42-48CC3E4D6F41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{72762A7F-040A-324E-BB42-48CC3E4D6F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,1044 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络或数据库错误</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库处理发生错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考数据库报错信息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败需重新上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学生证图片上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学生证图片上传成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已存在，请使用已绑定微信登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆时发生，用户存在即登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆时发生，用户不存在需注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录时发生，用户已存在但更换微信登录，需要重新绑定新微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活体照片上传成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活体照片上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户初次登录上传校园卡失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户初次登录上传校园卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户初次登录上传活体照片失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户初次登陆上传活体照片成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败需重新拍摄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户照片活体检测失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户照片同校园卡人脸匹配失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除session_key和openid成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考网络报错信息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息不完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到湖桃小世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息缺失项大于一项即会提醒用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功进入小程序首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败需重新上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无任何商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场暂无用户所需商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场展示用户所需商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品正在编辑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品已下架，无法查看详情信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品正在编辑中，无法查看详情信息</t>
+  </si>
+  <si>
+    <t>商品详情加载成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情信息展示成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情（商品信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录（学生证上传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录（用户状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录（人脸验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言不可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断用户可以删除当前选中留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断用户不可以删除当前选中留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除留言成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功删除留言信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情（留言状态信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情（留言操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情（收藏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功收藏商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户取消商品收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户文件夹失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端创建用户文件夹失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端上传商品图片失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考报错信息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品发布（商品信息上传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品发布（删除商品信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品发布（更改商品信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除已发布商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更改已发布商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片重命名失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端重命名图片失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更新商品图片，没有图片文件夹就重新创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端上传商品图片成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更新商品图片，后端上传商品图片失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更新商品图片，后端上传商品图片成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取个人信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取收藏商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（收藏信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（评论信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（订单信息：已发布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有发布任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已发布商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取已发布商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（订单信息：已卖出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有卖出任何商品</t>
+  </si>
+  <si>
+    <t>获取已卖出商品成功</t>
+  </si>
+  <si>
+    <t>用户没有卖出任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（订单信息：已购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户待他人付款商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取待他人付款商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有待他人付款商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有任何商品待他人付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有任何商品待他人收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有待他人收货商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取待他人收货商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待他人收货商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有任何商品待自己付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有待自己付款商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取待自己付款商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有任何商品待自己收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待自己付款商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有待自己收获商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取待自己收获商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有购买任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有购买任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取已购买商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有发布任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取已卖出商品信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（订单信息：用户评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家没有进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取买家评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家没有进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取卖家评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家没有对当前订单进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家没有对当前订单进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取卖家对当前订单评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取买家对当前订单评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手市场个人（地址信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户地址信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改地址信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户添加地址信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除地址信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功获取自己的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功修改自己的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功添加自己的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功删除自己的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前订单评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前订单详情信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改当前订单金额成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查看当前订单详情信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家更改当前订单金额成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查看当前订单评论信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前订单没有评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前订单没有评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对当前订单评论成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对当前订单成功进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情（查看订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情（修改订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情（更改订单状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更改订单状态确认收货成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更改订单状态取消订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家删除订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家删除订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家删除当前订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家删除当前订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有操作订单权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户不可修改订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商品已下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家成功下单生成商品订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品已下架，无法生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学生证匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学生证匹配失败，学号或姓名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户人脸匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活体检测失败,请到光线充足地拍摄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户人脸匹配失败，请重新验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到该商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改商品文字信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有收藏任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还没有获得任何评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待自己收货商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已购买商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改默认地址成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名学号同学生证匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名学号同学生证匹配失败，学号或姓名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改个人信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户人脸验证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端删除临时session_key和openid成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有收藏任何商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户还没有获得任何评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置默认地址成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000'</t>
+  </si>
+  <si>
+    <t>0001'</t>
+  </si>
+  <si>
+    <t>0002'</t>
+  </si>
+  <si>
+    <t>0003'</t>
+  </si>
+  <si>
+    <t>0004'</t>
+  </si>
+  <si>
+    <t>0005'</t>
+  </si>
+  <si>
+    <t>0006'</t>
+  </si>
+  <si>
+    <t>0072'</t>
+  </si>
+  <si>
+    <t>0073'</t>
+  </si>
+  <si>
+    <t>0007'</t>
+  </si>
+  <si>
+    <t>0008'</t>
+  </si>
+  <si>
+    <t>0009'</t>
+  </si>
+  <si>
+    <t>0010'</t>
+  </si>
+  <si>
+    <t>0011'</t>
+  </si>
+  <si>
+    <t>0074'</t>
+  </si>
+  <si>
+    <t>0012'</t>
+  </si>
+  <si>
+    <t>0013'</t>
+  </si>
+  <si>
+    <t>0075'</t>
+  </si>
+  <si>
+    <t>0034'</t>
+  </si>
+  <si>
+    <t>0014'</t>
+  </si>
+  <si>
+    <t>0015'</t>
+  </si>
+  <si>
+    <t>0016'</t>
+  </si>
+  <si>
+    <t>0017'</t>
+  </si>
+  <si>
+    <t>0018'</t>
+  </si>
+  <si>
+    <t>0019'</t>
+  </si>
+  <si>
+    <t>0020'</t>
+  </si>
+  <si>
+    <t>0021'</t>
+  </si>
+  <si>
+    <t>0022'</t>
+  </si>
+  <si>
+    <t>0023'</t>
+  </si>
+  <si>
+    <t>0024'</t>
+  </si>
+  <si>
+    <t>0025'</t>
+  </si>
+  <si>
+    <t>0026'</t>
+  </si>
+  <si>
+    <t>0027'</t>
+  </si>
+  <si>
+    <t>0028'</t>
+  </si>
+  <si>
+    <t>0029'</t>
+  </si>
+  <si>
+    <t>0030'</t>
+  </si>
+  <si>
+    <t>0031'</t>
+  </si>
+  <si>
+    <t>0032'</t>
+  </si>
+  <si>
+    <t>0033'</t>
+  </si>
+  <si>
+    <t>0035'</t>
+  </si>
+  <si>
+    <t>0076'</t>
+  </si>
+  <si>
+    <t>0036'</t>
+  </si>
+  <si>
+    <t>0077'</t>
+  </si>
+  <si>
+    <t>0037'</t>
+  </si>
+  <si>
+    <t>0038'</t>
+  </si>
+  <si>
+    <t>0039'</t>
+  </si>
+  <si>
+    <t>0040'</t>
+  </si>
+  <si>
+    <t>0041'</t>
+  </si>
+  <si>
+    <t>0042'</t>
+  </si>
+  <si>
+    <t>0043'</t>
+  </si>
+  <si>
+    <t>0044'</t>
+  </si>
+  <si>
+    <t>0045'</t>
+  </si>
+  <si>
+    <t>0046'</t>
+  </si>
+  <si>
+    <t>0047'</t>
+  </si>
+  <si>
+    <t>0048'</t>
+  </si>
+  <si>
+    <t>0049'</t>
+  </si>
+  <si>
+    <t>0050'</t>
+  </si>
+  <si>
+    <t>‘0051’</t>
+  </si>
+  <si>
+    <t>‘0052’</t>
+  </si>
+  <si>
+    <t>‘0053’</t>
+  </si>
+  <si>
+    <t>‘0054’</t>
+  </si>
+  <si>
+    <t>0055'</t>
+  </si>
+  <si>
+    <t>0056'</t>
+  </si>
+  <si>
+    <t>0057'</t>
+  </si>
+  <si>
+    <t>0058'</t>
+  </si>
+  <si>
+    <t>0059'</t>
+  </si>
+  <si>
+    <t>0060'</t>
+  </si>
+  <si>
+    <t>0061'</t>
+  </si>
+  <si>
+    <t>0062'</t>
+  </si>
+  <si>
+    <t>0063'</t>
+  </si>
+  <si>
+    <t>0064'</t>
+  </si>
+  <si>
+    <t>0065'</t>
+  </si>
+  <si>
+    <t>0066'</t>
+  </si>
+  <si>
+    <t>0067'</t>
+  </si>
+  <si>
+    <t>0068'</t>
+  </si>
+  <si>
+    <t>0069'</t>
+  </si>
+  <si>
+    <t>0070'</t>
+  </si>
+  <si>
+    <t>0071'</t>
+  </si>
+  <si>
+    <t>返回状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按情况返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0078'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0079'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品状态成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品不在了之后不能购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +1070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -54,6 +1085,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +1116,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,155 +1440,1502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E30F3-FF55-2D40-9FDB-08D5E682D8FF}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="F6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="F9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>25</v>
+      <c r="F15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>